--- a/biology/Botanique/Eucalyptus_viminalis/Eucalyptus_viminalis.xlsx
+++ b/biology/Botanique/Eucalyptus_viminalis/Eucalyptus_viminalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Eucalyptus viminalis appelé aussi gommier blanc ou gommier manne est un arbre de 30 mètres de haut (pouvant atteindre 50 mètres - le plus grand connu mesure 91 mètres[1] - ) droit élancé avec une écorce rugueuse sur le tronc et à la base des grosses branches. Les feuilles lancéolées font 8 à 20 centimètres de long sur 8 à 25 millimètres de large. Les fleurs sont blanches ou crème.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Eucalyptus viminalis appelé aussi gommier blanc ou gommier manne est un arbre de 30 mètres de haut (pouvant atteindre 50 mètres - le plus grand connu mesure 91 mètres - ) droit élancé avec une écorce rugueuse sur le tronc et à la base des grosses branches. Les feuilles lancéolées font 8 à 20 centimètres de long sur 8 à 25 millimètres de large. Les fleurs sont blanches ou crème.
 E. viminalis est largement répandu dans les zones froides d'Australie où ses feuilles sont l'aliment préféré des koalas. Sa sève contient 5 à 15 % de sucre ce qui en fait une source d'énergie importante pour les marsupiaux arboricoles.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">http://plantnet.rbgsyd.nsw.gov.au/cgi-bin/euctax.pl?/PlantNet/Euc=&amp;name=Eucalyptus+viminalis
  Portail de l’Australie   Portail de la botanique                    </t>
